--- a/tests/attendance/data/input.xlsx
+++ b/tests/attendance/data/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mito\Workspace\Cursor\mywork-tools\tests\attendance_tracker\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24166481\Workspace\Cursor\njs-mywork-tools\tests\attendance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAA81C9-0BA5-4542-8030-ED4B528E7291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6D423C-2697-4F60-AE4D-F9D87C5CDC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21170" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4380" yWindow="3885" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Timecard" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="42">
   <si>
     <t>日付</t>
     <phoneticPr fontId="1"/>
@@ -215,6 +215,13 @@
     <t>作業時間</t>
     <rPh sb="0" eb="4">
       <t>サギョウジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出勤</t>
+    <rPh sb="0" eb="2">
+      <t>シュッキン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -969,16 +976,16 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="H219" sqref="H219"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="C183" sqref="C183:C186"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="18.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="18.875" style="12" customWidth="1"/>
     <col min="5" max="5" width="21" style="12" customWidth="1"/>
     <col min="6" max="6" width="15.25" customWidth="1"/>
   </cols>
@@ -5186,9 +5193,8 @@
         <f>IFERROR(VLOOKUP(Timecard[[#This Row],[日付]],Holiday!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C182" s="14" t="str">
-        <f>IF(Timecard[[#This Row],[退社時間]]&lt;&gt;"","在宅","")</f>
-        <v>在宅</v>
+      <c r="C182" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="D182" s="13" t="str">
         <f>IF(Timecard[[#This Row],[退社時間]]&lt;&gt;"","8:50","")</f>
@@ -5210,9 +5216,8 @@
         <f>IFERROR(VLOOKUP(Timecard[[#This Row],[日付]],Holiday!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C183" s="14" t="str">
-        <f>IF(Timecard[[#This Row],[退社時間]]&lt;&gt;"","在宅","")</f>
-        <v>在宅</v>
+      <c r="C183" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="D183" s="13" t="str">
         <f>IF(Timecard[[#This Row],[退社時間]]&lt;&gt;"","8:50","")</f>
@@ -5234,9 +5239,8 @@
         <f>IFERROR(VLOOKUP(Timecard[[#This Row],[日付]],Holiday!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C184" s="14" t="str">
-        <f>IF(Timecard[[#This Row],[退社時間]]&lt;&gt;"","在宅","")</f>
-        <v>在宅</v>
+      <c r="C184" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="D184" s="13" t="str">
         <f>IF(Timecard[[#This Row],[退社時間]]&lt;&gt;"","8:50","")</f>
@@ -5258,9 +5262,8 @@
         <f>IFERROR(VLOOKUP(Timecard[[#This Row],[日付]],Holiday!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C185" s="14" t="str">
-        <f>IF(Timecard[[#This Row],[退社時間]]&lt;&gt;"","在宅","")</f>
-        <v>在宅</v>
+      <c r="C185" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="D185" s="13" t="str">
         <f>IF(Timecard[[#This Row],[退社時間]]&lt;&gt;"","8:50","")</f>
@@ -5282,9 +5285,8 @@
         <f>IFERROR(VLOOKUP(Timecard[[#This Row],[日付]],Holiday!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C186" s="14" t="str">
-        <f>IF(Timecard[[#This Row],[退社時間]]&lt;&gt;"","在宅","")</f>
-        <v>在宅</v>
+      <c r="C186" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="D186" s="13" t="str">
         <f>IF(Timecard[[#This Row],[退社時間]]&lt;&gt;"","8:50","")</f>
@@ -6518,10 +6520,10 @@
       <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="18.875" style="1" customWidth="1"/>
     <col min="3" max="7" width="13.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.75" customWidth="1"/>
   </cols>
@@ -7724,7 +7726,7 @@
       <selection activeCell="I28" sqref="I27:I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="26.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.75" customWidth="1"/>
